--- a/data/Subset1_WithDialogActs/Number line models 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number line models 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5039,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5115,12 +5115,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
